--- a/det_configs/leadership_governance.xlsx
+++ b/det_configs/leadership_governance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t xml:space="preserve">Source Field</t>
   </si>
@@ -79,33 +79,63 @@
     <t xml:space="preserve">form.reporting_period.year_under_review</t>
   </si>
   <si>
+    <t xml:space="preserve">year_under_review</t>
+  </si>
+  <si>
     <t xml:space="preserve">form.reporting_period.quarter_under_review</t>
   </si>
   <si>
+    <t xml:space="preserve">quarter_under_review</t>
+  </si>
+  <si>
     <t xml:space="preserve">form.location.zone_id</t>
   </si>
   <si>
+    <t xml:space="preserve">zone_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">form.location.zone_name</t>
   </si>
   <si>
+    <t xml:space="preserve">zone_name</t>
+  </si>
+  <si>
     <t xml:space="preserve">form.location.district_id</t>
   </si>
   <si>
+    <t xml:space="preserve">district_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">form.location.district_name</t>
   </si>
   <si>
+    <t xml:space="preserve">district_name</t>
+  </si>
+  <si>
     <t xml:space="preserve">form.location.facility_id</t>
   </si>
   <si>
+    <t xml:space="preserve">facility_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">form.location.facility_name</t>
   </si>
   <si>
+    <t xml:space="preserve">facility_name</t>
+  </si>
+  <si>
     <t xml:space="preserve">form.location.owner_location_id</t>
   </si>
   <si>
+    <t xml:space="preserve">owner_location_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">form.case.@case_id</t>
   </si>
   <si>
+    <t xml:space="preserve">case_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">form.meta.username</t>
   </si>
   <si>
@@ -115,16 +145,31 @@
     <t xml:space="preserve">form.action_items_opened</t>
   </si>
   <si>
+    <t xml:space="preserve">action_items_opened</t>
+  </si>
+  <si>
     <t xml:space="preserve">form.location.facility_type_name</t>
   </si>
   <si>
+    <t xml:space="preserve">facility_type_name</t>
+  </si>
+  <si>
     <t xml:space="preserve">form.location.facility_type_id</t>
   </si>
   <si>
+    <t xml:space="preserve">facility_type_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">form.gps_location.gps_location_question</t>
   </si>
   <si>
+    <t xml:space="preserve">gps_location_question</t>
+  </si>
+  <si>
     <t xml:space="preserve">form.gps_location.gps_location_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gps_location_data</t>
   </si>
 </sst>
 </file>
@@ -225,13 +270,13 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.7935222672065"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.2874493927126"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.7408906882591"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -310,127 +355,127 @@
         <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
